--- a/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200423.xlsx
+++ b/data/unchecked/manual_collect/china/guangdong/guangdongCaseStatistics_20200423.xlsx
@@ -10889,8 +10889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11091,10 +11091,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D2" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>41</v>
@@ -11154,10 +11154,10 @@
         <v>40</v>
       </c>
       <c r="C3" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D3" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>41</v>
@@ -11168,11 +11168,14 @@
       <c r="G3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="12">
-        <v>4</v>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12">
+        <v>3</v>
       </c>
       <c r="P3" s="12">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R3" s="12">
         <v>340</v>
@@ -11181,7 +11184,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="12">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB3" s="19"/>
       <c r="AC3" s="13"/>
@@ -11198,10 +11201,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D4" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>41</v>
@@ -11235,10 +11238,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D5" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>41</v>
@@ -11249,10 +11252,10 @@
       <c r="G5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="12">
+      <c r="K5" s="16"/>
+      <c r="N5" s="12">
         <v>1</v>
       </c>
-      <c r="K5" s="16"/>
       <c r="P5" s="12">
         <v>89</v>
       </c>
@@ -11260,7 +11263,7 @@
         <v>80</v>
       </c>
       <c r="T5" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="13"/>
@@ -11276,10 +11279,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D6" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>41</v>
@@ -11316,10 +11319,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D7" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>41</v>
@@ -11353,10 +11356,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D8" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>41</v>
@@ -11390,10 +11393,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D9" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>41</v>
@@ -11427,10 +11430,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D10" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>41</v>
@@ -11461,10 +11464,10 @@
         <v>40</v>
       </c>
       <c r="C11" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D11" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>41</v>
@@ -11496,10 +11499,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D12" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>41</v>
@@ -11534,10 +11537,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D13" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>41</v>
@@ -11568,10 +11571,10 @@
         <v>40</v>
       </c>
       <c r="C14" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D14" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>41</v>
@@ -11602,10 +11605,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D15" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>41</v>
@@ -11636,10 +11639,10 @@
         <v>40</v>
       </c>
       <c r="C16" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D16" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>41</v>
@@ -11670,10 +11673,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D17" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>41</v>
@@ -11707,10 +11710,10 @@
         <v>40</v>
       </c>
       <c r="C18" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D18" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>41</v>
@@ -11741,10 +11744,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D19" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>41</v>
@@ -11775,10 +11778,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D20" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>41</v>
@@ -11810,10 +11813,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D21" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>41</v>
@@ -11844,10 +11847,10 @@
         <v>3302</v>
       </c>
       <c r="C22" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D22" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>41</v>
@@ -11878,10 +11881,10 @@
         <v>3302</v>
       </c>
       <c r="C23" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D23" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>41</v>
@@ -11912,10 +11915,10 @@
         <v>3302</v>
       </c>
       <c r="C24" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D24" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>41</v>
@@ -11949,10 +11952,10 @@
         <v>3302</v>
       </c>
       <c r="C25" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D25" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>41</v>
@@ -11983,10 +11986,10 @@
         <v>3302</v>
       </c>
       <c r="C26" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D26" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>41</v>
@@ -12017,10 +12020,10 @@
         <v>3302</v>
       </c>
       <c r="C27" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D27" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>41</v>
@@ -12051,10 +12054,10 @@
         <v>3302</v>
       </c>
       <c r="C28" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D28" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>41</v>
@@ -12085,10 +12088,10 @@
         <v>3302</v>
       </c>
       <c r="C29" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D29" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>41</v>
@@ -12101,9 +12104,6 @@
       </c>
       <c r="H29" s="12" t="s">
         <v>3303</v>
-      </c>
-      <c r="I29" s="12">
-        <v>1</v>
       </c>
       <c r="P29" s="12">
         <v>35</v>
@@ -12122,10 +12122,10 @@
         <v>3302</v>
       </c>
       <c r="C30" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D30" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>41</v>
@@ -12156,10 +12156,10 @@
         <v>3302</v>
       </c>
       <c r="C31" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D31" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>41</v>
@@ -12190,10 +12190,10 @@
         <v>3302</v>
       </c>
       <c r="C32" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D32" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>41</v>
@@ -12224,10 +12224,10 @@
         <v>3302</v>
       </c>
       <c r="C33" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D33" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>41</v>
@@ -12258,10 +12258,10 @@
         <v>3302</v>
       </c>
       <c r="C34" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D34" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>41</v>
@@ -12292,10 +12292,10 @@
         <v>3302</v>
       </c>
       <c r="C35" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D35" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>41</v>
@@ -12326,10 +12326,10 @@
         <v>3302</v>
       </c>
       <c r="C36" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D36" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>41</v>
@@ -12360,10 +12360,10 @@
         <v>3302</v>
       </c>
       <c r="C37" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D37" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>41</v>
@@ -12394,10 +12394,10 @@
         <v>3302</v>
       </c>
       <c r="C38" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D38" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>41</v>
@@ -12428,10 +12428,10 @@
         <v>3302</v>
       </c>
       <c r="C39" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D39" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>41</v>
@@ -12462,10 +12462,10 @@
         <v>3302</v>
       </c>
       <c r="C40" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D40" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>41</v>
@@ -12496,10 +12496,10 @@
         <v>3302</v>
       </c>
       <c r="C41" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D41" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>41</v>
@@ -12530,10 +12530,10 @@
         <v>3302</v>
       </c>
       <c r="C42" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D42" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>41</v>
@@ -12564,10 +12564,10 @@
         <v>3302</v>
       </c>
       <c r="C43" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D43" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>41</v>
@@ -12598,10 +12598,10 @@
         <v>3302</v>
       </c>
       <c r="C44" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D44" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>41</v>
@@ -12632,10 +12632,10 @@
         <v>3302</v>
       </c>
       <c r="C45" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D45" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>41</v>
@@ -12666,10 +12666,10 @@
         <v>3302</v>
       </c>
       <c r="C46" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D46" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>41</v>
@@ -12700,10 +12700,10 @@
         <v>3302</v>
       </c>
       <c r="C47" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D47" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>41</v>
@@ -12734,10 +12734,10 @@
         <v>3302</v>
       </c>
       <c r="C48" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D48" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>41</v>
@@ -12768,10 +12768,10 @@
         <v>3302</v>
       </c>
       <c r="C49" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D49" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>41</v>
@@ -12802,10 +12802,10 @@
         <v>3302</v>
       </c>
       <c r="C50" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D50" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>41</v>
@@ -12836,10 +12836,10 @@
         <v>3302</v>
       </c>
       <c r="C51" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D51" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>41</v>
@@ -12870,10 +12870,10 @@
         <v>3302</v>
       </c>
       <c r="C52" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D52" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>41</v>
@@ -12904,10 +12904,10 @@
         <v>40</v>
       </c>
       <c r="C53" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D53" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>41</v>
@@ -12917,9 +12917,6 @@
       </c>
       <c r="G53" s="12" t="s">
         <v>3294</v>
-      </c>
-      <c r="I53" s="12">
-        <v>1</v>
       </c>
       <c r="P53" s="12">
         <f>SUM(P22:P52)</f>
@@ -12942,10 +12939,10 @@
         <v>40</v>
       </c>
       <c r="C54" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D54" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>41</v>
@@ -12957,10 +12954,10 @@
         <v>66</v>
       </c>
       <c r="K54" s="12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R54" s="12">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AB54" s="19"/>
       <c r="AC54" s="13"/>
@@ -12976,10 +12973,10 @@
         <v>67</v>
       </c>
       <c r="C55" s="17">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="D55" s="17">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>41</v>
@@ -12988,25 +12985,25 @@
         <v>42</v>
       </c>
       <c r="I55" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="12">
-        <v>7</v>
-      </c>
-      <c r="M55" s="12">
+        <v>10</v>
+      </c>
+      <c r="N55" s="12">
         <v>4</v>
       </c>
       <c r="P55" s="12">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="R55" s="12">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="S55" s="12">
         <v>8</v>
       </c>
       <c r="T55" s="12">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AB55" s="19"/>
       <c r="AC55" s="13"/>
